--- a/public/Components-List.xlsx
+++ b/public/Components-List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Documents\GitHub\rrlweb\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Documents\GitHub\rrlco\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA85480-12E0-4727-A285-382CE970EEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EB2ACC-77B3-4EAB-BBFE-8995B6923684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{BF78D422-0E6B-48D6-9951-B98E063C6675}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Arduino Mega</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Push Button</t>
   </si>
   <si>
-    <t>STM32 F030</t>
-  </si>
-  <si>
     <t>STM32 F103C8T6</t>
   </si>
   <si>
@@ -235,6 +232,12 @@
   </si>
   <si>
     <t>Minecraft Lapis Block</t>
+  </si>
+  <si>
+    <t>STM32 F030F4P6</t>
+  </si>
+  <si>
+    <t>Soldering Iron 40gr 0.8mm</t>
   </si>
 </sst>
 </file>
@@ -250,12 +253,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,11 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4878882-CB14-4D00-A022-C90562BC8E86}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="158" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="158" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -603,58 +613,73 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>184000</v>
       </c>
+      <c r="C2" s="1">
+        <v>210000</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>863000</v>
       </c>
+      <c r="C3" s="1">
+        <v>895000</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>70400</v>
       </c>
+      <c r="C4" s="1">
+        <v>85000</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>206100</v>
       </c>
+      <c r="C5" s="1">
+        <v>230000</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>95000</v>
       </c>
+      <c r="C6" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>96600</v>
       </c>
       <c r="C7" s="1">
-        <v>115000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,7 +695,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1">
         <v>480</v>
@@ -678,7 +703,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1">
         <v>3690</v>
@@ -686,7 +711,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1">
         <v>29600</v>
@@ -701,7 +726,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1">
@@ -712,7 +737,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1">
@@ -720,7 +745,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1">
@@ -728,7 +753,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1">
@@ -739,7 +764,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1">
@@ -752,7 +777,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1">
@@ -768,7 +793,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1">
@@ -776,7 +801,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="1">
@@ -787,7 +812,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="1">
@@ -798,7 +823,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="1">
@@ -806,7 +831,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1">
@@ -814,53 +839,71 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B26" s="1">
+        <v>24500</v>
+      </c>
       <c r="C26" s="1">
-        <v>2000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="1">
-        <v>65000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="1">
-        <v>58000</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>6200</v>
       </c>
+      <c r="C29" s="1">
+        <v>15000</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1">
+        <v>26500</v>
+      </c>
+      <c r="C30" s="1">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
+      <c r="B31" s="1">
+        <v>55000</v>
+      </c>
+      <c r="C31" s="1">
+        <v>59000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1">
         <v>1500000</v>
@@ -868,21 +911,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>26</v>
+      <c r="A34" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1">
         <v>2000000</v>
@@ -890,253 +933,300 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7490</v>
+      </c>
+      <c r="C38" s="1">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B38" s="1">
-        <v>74900</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>50</v>
       </c>
       <c r="B39" s="1">
         <v>3950</v>
       </c>
+      <c r="C39" s="1">
+        <v>11000</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
+      <c r="A40" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B40" s="1">
         <v>10000</v>
       </c>
+      <c r="C40" s="1">
+        <v>16000</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>31</v>
+      <c r="A41" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B41" s="1">
         <v>1180</v>
       </c>
+      <c r="C41" s="1">
+        <v>4600</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>33</v>
       </c>
       <c r="B43" s="1">
         <v>24700</v>
       </c>
+      <c r="C43" s="1">
+        <v>36000</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>34</v>
+      <c r="A44" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B44" s="1">
         <v>10300</v>
       </c>
+      <c r="C44" s="1">
+        <v>23000</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>51</v>
+      <c r="A45" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B45" s="1">
         <v>11600</v>
       </c>
+      <c r="C45" s="1">
+        <v>19000</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>52</v>
+      <c r="A46" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B46" s="1">
         <v>51900</v>
       </c>
+      <c r="C46" s="1">
+        <v>64000</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>53</v>
+      <c r="A47" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B47" s="1">
         <v>58300</v>
       </c>
+      <c r="C47" s="1">
+        <v>73000</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>35</v>
+      <c r="A48" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B48" s="1">
         <v>48300</v>
       </c>
+      <c r="C48" s="1">
+        <v>66000</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1">
         <v>200000</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>36</v>
+      <c r="A50" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C50" s="1">
         <v>350000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>37</v>
+      <c r="A51" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B51" s="1">
         <v>68300</v>
       </c>
+      <c r="C51" s="1">
+        <v>76000</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>38</v>
+      <c r="A52" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C52" s="1">
         <v>220000</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
+      <c r="A53" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B53" s="1">
+        <v>105300</v>
+      </c>
+      <c r="C53" s="1">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
         <v>305000</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>39</v>
-      </c>
       <c r="C54" s="1">
+        <v>349000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1">
         <v>60000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="1">
-        <v>36600</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56" s="1">
-        <v>7900</v>
+        <v>36600</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B57" s="1">
-        <v>23900</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="1">
-        <v>200000</v>
+        <v>40</v>
+      </c>
+      <c r="B58" s="1">
+        <v>23900</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="1">
+        <v>41</v>
+      </c>
+      <c r="C59" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="1">
         <v>7370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="1">
-        <v>60000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C62" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1">
         <v>150000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="1">
-        <v>95000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="1">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="1">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="1">
-        <v>115000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="1">
+      <c r="C66" s="1">
         <v>65000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="1">
-        <v>75000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C67" s="1">
-        <v>65000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C68" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="1">
         <v>195000</v>
       </c>
     </row>
